--- a/base/Maker/repair_maker.xlsx
+++ b/base/Maker/repair_maker.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -442,7 +442,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.85546875" customWidth="1" min="1" max="1"/>
-    <col width="37.28515625" customWidth="1" min="2" max="2"/>
+    <col width="59.28515625" customWidth="1" min="2" max="2"/>
     <col width="21.85546875" customWidth="1" min="3" max="3"/>
     <col width="24.28515625" customWidth="1" min="4" max="4"/>
     <col width="28.140625" customWidth="1" min="5" max="5"/>
@@ -501,98 +501,186 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>93308</v>
+        <v>92598</v>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Блок упр. авт. двери СМПК.422412.004 (ЭЛСИЭЛ)</t>
+          <t>Информационное табло светодиодное ИТС-0840.2-4RGВ-1-2</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>6201</t>
+          <t>962</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Орел</t>
+          <t>Москва-Киевская</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>ЭЛСИЭЛ</t>
+          <t>РЭТРА</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>44602</v>
-      </c>
-      <c r="G2" s="4" t="n"/>
+        <v>44578</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>44610</v>
+      </c>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>ожидает</t>
+          <t>отправлен</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>2</v>
+        <v>92615</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>проверка на "баги"  "ковычки"</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n"/>
+          <t>Информационное табло светодиодное ИТС-0840.1-4RGВ-2-2</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Адлер</t>
+          <t>Саратов</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>ЭЛСИЭЛ</t>
+          <t>РЭТРА</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>44606</v>
-      </c>
-      <c r="G3" s="4" t="n"/>
+        <v>44578</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>44610</v>
+      </c>
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>ожидает</t>
+          <t>отправлен</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>1</v>
+        <v>93312</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>проверка на "баги"  "ковычки"</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n"/>
+          <t>Информационное табло светодиодное ИТС-0840.1-4RGВ-2-2</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Адлер</t>
+          <t>Уфа</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>ЭЛСИЭЛ</t>
+          <t>РЭТРА</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44603</v>
-      </c>
-      <c r="G4" s="4" t="n"/>
+        <v>44602</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>44610</v>
+      </c>
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>ожидает</t>
+          <t>отправлен</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>93231</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Информационное табло светодиодное ИТС-0840.1-4RGВ-2-2</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Архангельск</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>РЭТРА</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>44600</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>отправлен</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>92321</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Информационное табло светодиодное ИТС-0840.1-4RGВ-2-2</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Уфа</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>РЭТРА</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>44559</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>44610</v>
+      </c>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>отправлен</t>
         </is>
       </c>
     </row>

--- a/base/Maker/repair_maker.xlsx
+++ b/base/Maker/repair_maker.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -442,7 +442,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.85546875" customWidth="1" min="1" max="1"/>
-    <col width="59.28515625" customWidth="1" min="2" max="2"/>
+    <col width="37.28515625" customWidth="1" min="2" max="2"/>
     <col width="21.85546875" customWidth="1" min="3" max="3"/>
     <col width="24.28515625" customWidth="1" min="4" max="4"/>
     <col width="28.140625" customWidth="1" min="5" max="5"/>
@@ -501,186 +501,98 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>92598</v>
+        <v>93308</v>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Информационное табло светодиодное ИТС-0840.2-4RGВ-1-2</t>
+          <t>Блок упр. авт. двери СМПК.422412.004 (ЭЛСИЭЛ)</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>6201</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Москва-Киевская</t>
+          <t>Орел</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>РЭТРА</t>
+          <t>ЭЛСИЭЛ</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>44578</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>44610</v>
-      </c>
+        <v>44602</v>
+      </c>
+      <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>отправлен</t>
+          <t>ожидает</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>92615</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Информационное табло светодиодное ИТС-0840.1-4RGВ-2-2</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>551</t>
-        </is>
-      </c>
+          <t>проверка на "баги"  "ковычки"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Саратов</t>
+          <t>Адлер</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>РЭТРА</t>
+          <t>ЭЛСИЭЛ</t>
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>44578</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>44610</v>
-      </c>
+        <v>44606</v>
+      </c>
+      <c r="G3" s="4" t="n"/>
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>отправлен</t>
+          <t>ожидает</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>93312</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Информационное табло светодиодное ИТС-0840.1-4RGВ-2-2</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>596</t>
-        </is>
-      </c>
+          <t>проверка на "баги"  "ковычки"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Уфа</t>
+          <t>Адлер</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>РЭТРА</t>
+          <t>ЭЛСИЭЛ</t>
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44602</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>44610</v>
-      </c>
+        <v>44603</v>
+      </c>
+      <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>отправлен</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>93231</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Информационное табло светодиодное ИТС-0840.1-4RGВ-2-2</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>698</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Архангельск</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>РЭТРА</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>44600</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>44610</v>
-      </c>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>отправлен</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>92321</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Информационное табло светодиодное ИТС-0840.1-4RGВ-2-2</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Уфа</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>РЭТРА</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>44559</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>44610</v>
-      </c>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>отправлен</t>
+          <t>ожидает</t>
         </is>
       </c>
     </row>

--- a/base/Maker/repair_maker.xlsx
+++ b/base/Maker/repair_maker.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -442,7 +442,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.85546875" customWidth="1" min="1" max="1"/>
-    <col width="37.28515625" customWidth="1" min="2" max="2"/>
+    <col width="59.28515625" customWidth="1" min="2" max="2"/>
     <col width="21.85546875" customWidth="1" min="3" max="3"/>
     <col width="24.28515625" customWidth="1" min="4" max="4"/>
     <col width="28.140625" customWidth="1" min="5" max="5"/>
@@ -534,68 +534,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>проверка на "баги"  "ковычки"</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Адлер</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>ЭЛСИЭЛ</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>44606</v>
-      </c>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>ожидает</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>проверка на "баги"  "ковычки"</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Адлер</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>ЭЛСИЭЛ</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>44603</v>
-      </c>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>ожидает</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/base/Maker/repair_maker.xlsx
+++ b/base/Maker/repair_maker.xlsx
@@ -500,37 +500,41 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>93308</v>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>91330</t>
+        </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Блок упр. авт. двери СМПК.422412.004 (ЭЛСИЭЛ)</t>
+          <t>Панель маршрутная ПМЛ-110-06 АВДБ.687240.085</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>6201</t>
+          <t>00189</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Орел</t>
+          <t>Ростов-на-Дону</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>ЭЛСИЭЛ</t>
+          <t>ЭЛК</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>44602</v>
-      </c>
-      <c r="G2" s="4" t="n"/>
+        <v>44512</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>44573</v>
+      </c>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>ожидает</t>
+          <t>отправлен</t>
         </is>
       </c>
     </row>

--- a/base/Maker/repair_maker.xlsx
+++ b/base/Maker/repair_maker.xlsx
@@ -501,36 +501,38 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
-        <v>93308</v>
+        <v>91330</v>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Блок упр. авт. двери СМПК.422412.004 (ЭЛСИЭЛ)</t>
+          <t>Панель маршрутная ПМЛ-110-06 АВДБ.687240.085</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>6201</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Орел</t>
+          <t>Ростов-на-Дону</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>ЭЛСИЭЛ</t>
+          <t>ЭЛК</t>
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>44602</v>
-      </c>
-      <c r="G2" s="4" t="n"/>
+        <v>44512</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>44573</v>
+      </c>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>ожидает</t>
+          <t>отправлен</t>
         </is>
       </c>
     </row>

--- a/base/Maker/repair_maker.xlsx
+++ b/base/Maker/repair_maker.xlsx
@@ -500,22 +500,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>91330</v>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>93074</t>
+        </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Панель маршрутная ПМЛ-110-06 АВДБ.687240.085</t>
+          <t>Панель информационная ПИ 1280х248</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>01266</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Ростов-на-Дону</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -524,10 +526,10 @@
         </is>
       </c>
       <c r="F2" s="5" t="n">
-        <v>44512</v>
+        <v>44595</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>44573</v>
+        <v>44620</v>
       </c>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="inlineStr">
